--- a/biology/Botanique/Ranunculaceae/Ranunculaceae.xlsx
+++ b/biology/Botanique/Ranunculaceae/Ranunculaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ranunculaceae, en français les Ranunculacées ou plus traditionnellement les Renonculacées, sont une famille de plantes voisine des Dicotylédones vraies. Celle-ci comprend environ 2 500 espèces réparties en une soixantaine de genres[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ranunculaceae, en français les Ranunculacées ou plus traditionnellement les Renonculacées, sont une famille de plantes voisine des Dicotylédones vraies. Celle-ci comprend environ 2 500 espèces réparties en une soixantaine de genres.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre Ranunculus (« petite grenouille »), diminutif du latin rana (cf rainette), car plusieurs espèces sont aquatiques et plusieurs autres affectionnent les endroits humides que fréquentent ces amphibiens[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre Ranunculus (« petite grenouille »), diminutif du latin rana (cf rainette), car plusieurs espèces sont aquatiques et plusieurs autres affectionnent les endroits humides que fréquentent ces amphibiens.
 </t>
         </is>
       </c>
@@ -542,16 +556,88 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ranunculaceae sont une famille par enchaînement[4], montrant plusieurs tendances évolutives, ce qui explique la diversité de l'appareil végétatif (grande variabilité morphologique) et reproducteur, ce dernier montrant plusieurs directions évolutives[5].
-Appareil végétatif
-Ce sont des plantes herbacées (quelques ligneuses, arbustes tel que Xanthorhiza, lianes et plantes grimpantes telles que les Clématite), annuelles ou pérennes, rhizomateuses ou tubéreuses, des régions froides à tropicales, avec un maximum dans les régions tempérées de l'hémisphère Nord. Les feuilles généralement sans stipules (exception : Thalictrum) et à pétioles élargis à la base (feuilles engainantes) montrent toutes les tendances évolutives : simples, entières (Caltha) ou souvent très découpées, parfois composées ; alternes, opposées (plus rarement, comme dans le genre Clematis) ou/et en rosettes basales ; l'hétérophyllie est marquée chez les espèces aquatiques. Chez certaines espèces, le pétiole est transformé en vrille (Clematis) ou ce sont les 3 folioles apicales qui sont réduites à des vrilles (Naravelia)[5].
-Les renonculacées sont des plantes toxiques de par leur production d'alcaloïdes, d'hétérosides, de lactones telles que la proto-anémonine, principe âcre et irritant qui est une cardiotoxine. Ces composés toxiques constituent une défense chimique contre les herbivores[2].
-Appareil reproducteur
-L'appareil reproducteur montre les directions évolutives suivantes : périanthe non différencié (Helleborus) mais le plus souvent différenciation en sépales et pétales selon deux voies : par sépalisation de l'involucre bractéen (Anemone) ou par pétalisation progressive des nectaires ou des étamines (les pétales chez Ranunculus sont ainsi appelés feuilles nectarifères)[6] ; gamocarpellie (Nigella) ; apparition de la zygomorphie (Aconitum) ; cyclisation par fragmentation de la spirale (Helleborus) ; évolution vers la superovarie ; réduction progressive du nombre d'étamines et de verticilles d'étamines (en lien avec la zygomorphie et des contraintes spatiales) puis polyandrie secondaire (polystémonie interprétée comme un moyen d'offrir une plus grande quantité de pollen aux pollinisateurs)[7].
-La fleur est parfois solitaire, comme chez certaines espèces des genres Anemone et Pulsatilla. Mais en général les fleurs sont groupées en inflorescences variées : généralement terminale (rarement axillaire), elle est de type grappe (Aconitum), panicule (Thalictrum) ou cyme (Helleborus). Elle regroupe des fleurs bisexuées spiralo-cycliques dialytépales ou dialypétales, actinomorphes ou zygomorphes (parfois éperonnées), polystémones (souvent avec les stades intermédiaires entre les spirales de nectaires et d'étamines à anthères à déhiscence longitudinale), hypogynes. La pollinisation est entomophile (anémophile chez Thalictrum). Les carpelles généralement libres sont surmontés de stigmates souvent bilobés, à placentation marginale ou axile[5].
-Formule florale[5] :  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ranunculaceae sont une famille par enchaînement, montrant plusieurs tendances évolutives, ce qui explique la diversité de l'appareil végétatif (grande variabilité morphologique) et reproducteur, ce dernier montrant plusieurs directions évolutives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ranunculaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ranunculaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes herbacées (quelques ligneuses, arbustes tel que Xanthorhiza, lianes et plantes grimpantes telles que les Clématite), annuelles ou pérennes, rhizomateuses ou tubéreuses, des régions froides à tropicales, avec un maximum dans les régions tempérées de l'hémisphère Nord. Les feuilles généralement sans stipules (exception : Thalictrum) et à pétioles élargis à la base (feuilles engainantes) montrent toutes les tendances évolutives : simples, entières (Caltha) ou souvent très découpées, parfois composées ; alternes, opposées (plus rarement, comme dans le genre Clematis) ou/et en rosettes basales ; l'hétérophyllie est marquée chez les espèces aquatiques. Chez certaines espèces, le pétiole est transformé en vrille (Clematis) ou ce sont les 3 folioles apicales qui sont réduites à des vrilles (Naravelia).
+Les renonculacées sont des plantes toxiques de par leur production d'alcaloïdes, d'hétérosides, de lactones telles que la proto-anémonine, principe âcre et irritant qui est une cardiotoxine. Ces composés toxiques constituent une défense chimique contre les herbivores.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ranunculaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ranunculaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appareil reproducteur montre les directions évolutives suivantes : périanthe non différencié (Helleborus) mais le plus souvent différenciation en sépales et pétales selon deux voies : par sépalisation de l'involucre bractéen (Anemone) ou par pétalisation progressive des nectaires ou des étamines (les pétales chez Ranunculus sont ainsi appelés feuilles nectarifères) ; gamocarpellie (Nigella) ; apparition de la zygomorphie (Aconitum) ; cyclisation par fragmentation de la spirale (Helleborus) ; évolution vers la superovarie ; réduction progressive du nombre d'étamines et de verticilles d'étamines (en lien avec la zygomorphie et des contraintes spatiales) puis polyandrie secondaire (polystémonie interprétée comme un moyen d'offrir une plus grande quantité de pollen aux pollinisateurs).
+La fleur est parfois solitaire, comme chez certaines espèces des genres Anemone et Pulsatilla. Mais en général les fleurs sont groupées en inflorescences variées : généralement terminale (rarement axillaire), elle est de type grappe (Aconitum), panicule (Thalictrum) ou cyme (Helleborus). Elle regroupe des fleurs bisexuées spiralo-cycliques dialytépales ou dialypétales, actinomorphes ou zygomorphes (parfois éperonnées), polystémones (souvent avec les stades intermédiaires entre les spirales de nectaires et d'étamines à anthères à déhiscence longitudinale), hypogynes. La pollinisation est entomophile (anémophile chez Thalictrum). Les carpelles généralement libres sont surmontés de stigmates souvent bilobés, à placentation marginale ou axile.
+Formule florale :  
         S
         (
         T
@@ -582,38 +668,40 @@
                 )
               _
     {\displaystyle \ S(T)_{5-n}\;P_{0-5-n}\;E_{5-10-nSt};C_{\underline {(2-n)}}}
-Les fruits sont des akènes (Ranunculus, Clematis), follicule (Helleborus) ou capsule (Nigella), rarement des baies (Actaea) à dispersion ornithochore. Ils contiennent des graines à albumen oléagineux[2].
+Les fruits sont des akènes (Ranunculus, Clematis), follicule (Helleborus) ou capsule (Nigella), rarement des baies (Actaea) à dispersion ornithochore. Ils contiennent des graines à albumen oléagineux.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Ranunculaceae</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ranunculaceae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Classification APG</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Angiosperm Phylogeny Website                        (23 avr. 2010)[8] détermine 5 sous-familles :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Angiosperm Phylogeny Website                        (23 avr. 2010) détermine 5 sous-familles :
 Hydrastidoideae (anciennement famille Hydrastidaceae) avec Hydrastis canadense originaire d'Amérique du Nord.
 Glaucidioideae (anciennement famille Glaucidiaceae) avec Glaucidium palmatum originaire du Japon.
 Coptidoideae avec 17 espèces en 3 genres.
@@ -622,33 +710,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Ranunculaceae</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ranunculaceae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les principaux genres sont Ranunculus (400 espèces), Delphinium (250 espèces), Aconitum (245 espèces), Clematis (200 espèces), Anemone (150 espèces), Thalictrum (100 espèces)[9]. La flore française est riche d'une vingtaine de genres et environ 160 espèces, avec  Ranunculus (80 espèces), Anemone (11 espèces), Aquilegia (9 espèces d'Ancolies), Thalictrum (9 espèces de Pigamons), Delphinium (8 espèces), Consolida (8 espèces de Pieds-d'Alouette), Pulsatilla (7 espèces), Aconitum (5 espèces), Adonis (5 espèces)[10].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux genres sont Ranunculus (400 espèces), Delphinium (250 espèces), Aconitum (245 espèces), Clematis (200 espèces), Anemone (150 espèces), Thalictrum (100 espèces). La flore française est riche d'une vingtaine de genres et environ 160 espèces, avec  Ranunculus (80 espèces), Anemone (11 espèces), Aquilegia (9 espèces d'Ancolies), Thalictrum (9 espèces de Pigamons), Delphinium (8 espèces), Consolida (8 espèces de Pieds-d'Alouette), Pulsatilla (7 espèces), Aconitum (5 espèces), Adonis (5 espèces).
 En France, on peut citer les genres :
 Aconitum, qui comprend l'aconit napel.
 Anemone, qui comprend l'anémone sylvie commune dans les sous-bois.
@@ -661,7 +751,7 @@
 Ranunculus avec le bouton d'or (Ranunculus repens).
 Trollius, les trolles des montagnes.
 Dans les jardins des régions tempérées, un grand nombre de variétés ornementales appartiennent à cette famille.
-Selon NCBI  (23 avr. 2010)[11], la liste complète des genres est :
+Selon NCBI  (23 avr. 2010), la liste complète des genres est :
 genre Aconitella
 genre Aconitum - Aconits
 genre Actaea- Actées
@@ -718,7 +808,7 @@
 genre Trollius - Trolles
 genre Urophysa
 genre Xanthorhiza
-Selon Angiosperm Phylogeny Website                        (18 mai 2010)[12] :
+Selon Angiosperm Phylogeny Website                        (18 mai 2010) :
 genre Aconitum L.
 genre Actaea L.
 genre Adonis L.
@@ -771,7 +861,7 @@
 genre Trollius L.
 genre Urophysa Ulbr.
 genre Xanthorhiza Marshall
-Selon DELTA Angio           (23 avr. 2010)[13] :
+Selon DELTA Angio           (23 avr. 2010) :
 genre Aconitum
 genre Actaea
 genre Adonis
@@ -823,7 +913,7 @@
 genre Trollius
 genre Urophysa
 genre Xanthorhiza
-Selon ITIS      (23 avr. 2010)[14] :
+Selon ITIS      (23 avr. 2010) :
 genre Aconitum  L.
 genre Actaea  L.
 genre Adonis  L.
@@ -854,33 +944,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Ranunculaceae</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ranunculaceae</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Record</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La renoncule des glaciers est une des plantes à fleurs européennes poussant à la plus haute altitude puisqu'elle se rencontre jusqu'à plus de 4 000 mètres (en Suisse)[15]. Avec la brassicacée Solms-laubachia himalayensis (en), Ranunculus lobatus peut être trouvée à 7 756 mètres de hauteur dans l'Himalaya, la plus haute altitude jamais atteinte par une plante à fleur[16].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La renoncule des glaciers est une des plantes à fleurs européennes poussant à la plus haute altitude puisqu'elle se rencontre jusqu'à plus de 4 000 mètres (en Suisse). Avec la brassicacée Solms-laubachia himalayensis (en), Ranunculus lobatus peut être trouvée à 7 756 mètres de hauteur dans l'Himalaya, la plus haute altitude jamais atteinte par une plante à fleur.
 </t>
         </is>
       </c>
